--- a/code/KL.xlsx
+++ b/code/KL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2CB65DCB-ABB7-43B8-8965-D0372E5D3C07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F3E9F65-B0D5-4BF5-B312-EB0030C8E552}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{8A5167B7-F312-4F19-9A07-7EFA9B3065DD}"/>
   </bookViews>
@@ -28,18 +28,23 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Image Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LSB-pair1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>

--- a/code/KL.xlsx
+++ b/code/KL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\github\Digital_Watermarking-LSB-pair\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0F3E9F65-B0D5-4BF5-B312-EB0030C8E552}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EB1BF748-5235-40AD-8BCE-286814E6473D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20865" windowHeight="10590" xr2:uid="{8A5167B7-F312-4F19-9A07-7EFA9B3065DD}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9462A7D9-925F-4CEF-A765-2E144DA437E2}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E51"/>
+      <selection activeCell="B2" sqref="B2:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,818 +537,1398 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>0.12724512194020893</v>
+        <v>9.9456629677537309E-2</v>
       </c>
       <c r="C4">
-        <v>3.0748176705698103E-2</v>
+        <v>8.6271717614065883E-3</v>
       </c>
       <c r="D4">
-        <v>2.89618014782837E-2</v>
+        <v>8.5284477940626418E-3</v>
       </c>
       <c r="E4">
-        <v>2.8620879851899678E-2</v>
+        <v>8.2960340705867559E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>7.7312205067817399E-2</v>
+        <v>0.12724512194020893</v>
       </c>
       <c r="C5">
-        <v>4.6377482894481075E-3</v>
+        <v>3.0748176705698103E-2</v>
       </c>
       <c r="D5">
-        <v>4.1570340712369803E-3</v>
+        <v>2.89618014782837E-2</v>
       </c>
       <c r="E5">
-        <v>4.1727436511434764E-3</v>
+        <v>2.8620879851899678E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>8.1229639015588662E-2</v>
+        <v>7.7312205067817399E-2</v>
       </c>
       <c r="C6">
-        <v>2.0154516105581779E-3</v>
+        <v>4.6377482894481075E-3</v>
       </c>
       <c r="D6">
-        <v>1.947709481597027E-3</v>
+        <v>4.1570340712369803E-3</v>
       </c>
       <c r="E6">
-        <v>1.7665956284682234E-3</v>
+        <v>4.1727436511434764E-3</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>3.621496434756754E-2</v>
+        <v>8.1229639015588662E-2</v>
       </c>
       <c r="C7">
-        <v>4.701957661124434E-2</v>
+        <v>2.0154516105581779E-3</v>
       </c>
       <c r="D7">
-        <v>4.7840888046312084E-2</v>
+        <v>1.947709481597027E-3</v>
       </c>
       <c r="E7">
-        <v>4.7296683401987519E-2</v>
+        <v>1.7665956284682234E-3</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>7.4404030746741123E-2</v>
+        <v>3.621496434756754E-2</v>
       </c>
       <c r="C8">
-        <v>2.1429115411059712E-3</v>
+        <v>4.701957661124434E-2</v>
       </c>
       <c r="D8">
-        <v>1.8097309746483122E-3</v>
+        <v>4.7840888046312084E-2</v>
       </c>
       <c r="E8">
-        <v>1.7604248333968721E-3</v>
+        <v>4.7296683401987519E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>7.139852792253297E-2</v>
+        <v>7.4404030746741123E-2</v>
       </c>
       <c r="C9">
-        <v>5.4116315545724809E-3</v>
+        <v>2.1429115411059712E-3</v>
       </c>
       <c r="D9">
-        <v>5.0112368551652959E-3</v>
+        <v>1.8097309746483122E-3</v>
       </c>
       <c r="E9">
-        <v>4.600624105534851E-3</v>
+        <v>1.7604248333968721E-3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.14298075846360431</v>
+        <v>7.139852792253297E-2</v>
       </c>
       <c r="C10">
-        <v>4.3591998092189749E-2</v>
+        <v>5.4116315545724809E-3</v>
       </c>
       <c r="D10">
-        <v>4.2284123973075211E-2</v>
+        <v>5.0112368551652959E-3</v>
       </c>
       <c r="E10">
-        <v>4.1318528730387556E-2</v>
+        <v>4.600624105534851E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.1257614598821267</v>
+        <v>0.14298075846360431</v>
       </c>
       <c r="C11">
-        <v>1.9744808136173731E-2</v>
+        <v>4.3591998092189749E-2</v>
       </c>
       <c r="D11">
-        <v>1.9286088272611607E-2</v>
+        <v>4.2284123973075211E-2</v>
       </c>
       <c r="E11">
-        <v>1.9069052274190458E-2</v>
+        <v>4.1318528730387556E-2</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>19</v>
-      </c>
       <c r="B12">
-        <v>0.10958155222781338</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.1441381491307393E-2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>2.0432999956827638E-2</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2.0074232483298472E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2</v>
-      </c>
       <c r="B13">
-        <v>3.6000394234081821E-2</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.11989906474422536</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1203619851660921</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.12017016976351354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>20</v>
-      </c>
       <c r="B14">
-        <v>3.1737919084645731E-2</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>3.5808234620282008E-2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>3.6557406656716925E-2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3.6027659162012698E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>21</v>
-      </c>
       <c r="B15">
-        <v>7.1220995130990158E-2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>5.1217484826872111E-3</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>4.7218509719843885E-3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>4.659649437201571E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>22</v>
-      </c>
       <c r="B16">
-        <v>7.2577138089182272E-2</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1.0205438783298791E-2</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>9.1278333847045132E-3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>9.0604693315361074E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>8.7661467242168042E-2</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.2281085669013978E-3</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>4.5818171445461599E-3</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3.7252968573944336E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>9.444166628620583E-2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4.6701090511078354E-3</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4.1724147896985081E-3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4.1763774784935618E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>9.5958585272129387E-2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4.6028133379136032E-3</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4.0852073483502683E-3</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3.6788995619230764E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>8.5700458785002404E-2</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>3.1944571414123939E-3</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>3.1759403420952913E-3</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>2.5864146290772586E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>8.3116843386000908E-2</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>2.5639979647067235E-3</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>2.2339539235028258E-3</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>2.0678135433868051E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>9.8838208629788801E-2</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1.2076738719489194E-2</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1.1416527994929175E-2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.1025209137067605E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>5.0586487148739652E-2</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>6.0805369793091708E-2</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>6.1561602944957598E-2</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>6.1084913103871527E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>8.4079820805667047E-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1.1781336454424562E-2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>1.1385114570509844E-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1.1431467849511242E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>30</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>8.156842250232843E-2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2.9203848580265732E-3</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>2.6923934081745054E-3</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2.576712196713897E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>31</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>8.2400773876552716E-2</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>3.5814920644276185E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>3.105249871189715E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>3.0315422832074531E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>32</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>9.2152103166698446E-2</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>9.6500367749174764E-3</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>9.074155786262781E-3</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>8.9737827296899088E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28">
-        <v>5.8464808901513128E-2</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>3.3141520171192332E-2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3.3636326002237302E-2</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>3.3239815892309572E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>34</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>8.617453354364063E-2</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>4.605575574876941E-3</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3.3880938911034185E-3</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>3.1970825046439251E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>6.5170497306613548E-2</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>7.7693187008016076E-3</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>6.8938652695535894E-3</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>6.8756266471365407E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>36</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>8.9090169893639271E-2</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>9.8303030988553895E-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>8.6634521371859834E-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>8.0355172919812801E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32">
-        <v>8.371414855246069E-2</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>4.4453101270906653E-2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>4.3069983254878486E-2</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>4.2404332538976533E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33">
-        <v>0.1051162427445541</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>3.0318073887102913E-2</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>2.8641055359615891E-2</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2.8099574523333237E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34">
-        <v>2.8641709618988462E-2</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>3.2740414061285368E-2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>3.2351207219081059E-2</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>3.2418761232063713E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35">
-        <v>0.25285508048587829</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.104654715733941</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>0.10162819175630441</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0.10198009678620493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36">
-        <v>0.15644868408558404</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>5.5502795230360162E-2</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>5.22716093980614E-2</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>5.1634936781444686E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37">
-        <v>0.10533122330134061</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1.2470373308885988E-2</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>1.153610931437001E-2</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>1.1128275357099726E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>42</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38">
-        <v>9.4097839813915757E-2</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>1.2598669706781631E-2</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1.1540785398392948E-2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1.140443338365791E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>43</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39">
-        <v>0.11934873882713752</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>4.8627166529910462E-2</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>4.7229819968743432E-2</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>4.52861412606788E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>44</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40">
-        <v>0.16382490527403035</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>5.5884992142568715E-2</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>5.1868365513267539E-2</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>5.1470484620214661E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41">
-        <v>0.24486082065049711</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>9.0564976583869097E-2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>8.6402870081007707E-2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>8.5826959271041545E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>46</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42">
-        <v>0.22148710578502101</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>8.6146578686181738E-2</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>8.4128281783693776E-2</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>8.3665628730423394E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>47</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43">
-        <v>8.7500464368917494E-2</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>1.6772320358075792E-2</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>1.5754867694000037E-2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1.5596640598090959E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>48</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44">
-        <v>6.609043362729343E-2</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1.8776800281432377E-2</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1.7632346352922643E-2</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1.7100348555221696E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>49</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45">
-        <v>8.0808141044443865E-2</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>6.151740897386372E-3</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>5.2627612296994794E-3</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>5.0852822508618434E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46">
-        <v>7.5653514094069382E-2</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>4.7424984407885154E-3</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>4.3356159239745983E-3</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>4.1239946974835056E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>50</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47">
-        <v>7.7783440827137409E-2</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>2.5272431784469918E-3</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>2.1394468708534464E-3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2.0176299194751154E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48">
-        <v>0.12847053525765142</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>3.9545537261869018E-2</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>3.8700474748358436E-2</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>3.8631423939369615E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49">
-        <v>6.2799311744829917E-2</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>8.6795997578118615E-3</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>8.2343724063707584E-3</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>7.4704537643223443E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50">
-        <v>0.10618101969337536</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>1.3178317688303479E-2</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1.2489546955917022E-2</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>1.242439369949987E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51">
-        <v>6.4764718543536284E-2</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>2.7740486659457958E-3</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>2.6527177401207995E-3</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>2.50312866887567E-3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
